--- a/4.중앙암등록/1.암등록테이블컬럼 정의서.xlsx
+++ b/4.중앙암등록/1.암등록테이블컬럼 정의서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12050" tabRatio="672" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12050" tabRatio="672" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개정이력" sheetId="34" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="355">
   <si>
     <t>대분류</t>
   </si>
@@ -792,10 +792,6 @@
   </si>
   <si>
     <t>PK</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK_1</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -1282,6 +1278,27 @@
 수술명-VARCHAR(500)
 위내시경조직표본수-VARCHAR(100)
 재발증상코드 값 수정(Palpable mass, Skin change, Palpable Lymph node, 기타)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.9</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.02.07</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>유방암</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>유방암테이블컬럼정의서(최종본)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> DNA변이정보A값(DNA_VAINF_A_VL)  컬럼의 
+데이터타입 NUMERIC(10,3)-&gt;VARCHAR(200) 값VC200 으로 변경</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2012,11 +2029,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2032,7 +2049,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -2043,25 +2060,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="G2" s="19" t="s">
         <v>268</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.45">
@@ -2069,22 +2086,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>270</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>271</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="F3" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="G3" s="22" t="s">
         <v>273</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.45">
@@ -2092,22 +2109,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>270</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>271</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="F4" s="31" t="s">
-        <v>273</v>
-      </c>
       <c r="G4" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.45">
@@ -2115,22 +2132,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>270</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>271</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="G5" s="29" t="s">
         <v>275</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.45">
@@ -2138,22 +2155,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>270</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>271</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>176</v>
       </c>
       <c r="E6" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="F6" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="F6" s="31" t="s">
-        <v>278</v>
-      </c>
       <c r="G6" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.45">
@@ -2161,22 +2178,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>270</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>271</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.45">
@@ -2184,22 +2201,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>270</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>271</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.45">
@@ -2207,22 +2224,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="F9" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>281</v>
-      </c>
       <c r="G9" s="29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.45">
@@ -2230,22 +2247,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C10" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>283</v>
-      </c>
       <c r="F10" s="31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="68" x14ac:dyDescent="0.45">
@@ -2253,22 +2270,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="153" x14ac:dyDescent="0.45">
@@ -2276,22 +2293,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="170" x14ac:dyDescent="0.45">
@@ -2299,22 +2316,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -2322,22 +2339,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>296</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -2345,22 +2362,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>298</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -2368,22 +2385,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -2391,22 +2408,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>301</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.45">
@@ -2414,22 +2431,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -2437,22 +2454,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>176</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -2460,22 +2477,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D20" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="F20" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="G20" s="25" t="s">
         <v>308</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -2483,22 +2500,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D21" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="E21" s="20" t="s">
-        <v>308</v>
-      </c>
       <c r="F21" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -2506,22 +2523,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C22" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="E22" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>312</v>
-      </c>
       <c r="F22" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="51" x14ac:dyDescent="0.45">
@@ -2529,22 +2546,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="F23" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="F23" s="25" t="s">
-        <v>281</v>
-      </c>
       <c r="G23" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="51" x14ac:dyDescent="0.45">
@@ -2552,22 +2569,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="F24" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="F24" s="25" t="s">
-        <v>281</v>
-      </c>
       <c r="G24" s="25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="51" x14ac:dyDescent="0.45">
@@ -2575,22 +2592,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="F25" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="F25" s="25" t="s">
-        <v>281</v>
-      </c>
       <c r="G25" s="25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="34" x14ac:dyDescent="0.45">
@@ -2598,22 +2615,22 @@
         <v>24</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="34" x14ac:dyDescent="0.45">
@@ -2621,22 +2638,22 @@
         <v>25</v>
       </c>
       <c r="B27" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>335</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>336</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>176</v>
       </c>
       <c r="E27" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="G27" s="25" t="s">
         <v>337</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="85" x14ac:dyDescent="0.45">
@@ -2644,22 +2661,45 @@
         <v>26</v>
       </c>
       <c r="B28" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="D28" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="E28" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="F28" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="E28" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>334</v>
-      </c>
       <c r="G28" s="25" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="34" x14ac:dyDescent="0.45">
+      <c r="A29" s="20">
+        <v>27</v>
+      </c>
+      <c r="B29" s="24" t="s">
         <v>350</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -2786,8 +2826,8 @@
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2814,25 +2854,25 @@
         <v>12</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>249</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>250</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>236</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>251</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
@@ -2849,13 +2889,13 @@
         <v>29</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>29</v>
@@ -2864,7 +2904,7 @@
         <v>29</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
@@ -2919,7 +2959,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>15</v>
@@ -2942,10 +2982,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F5" s="28" t="s">
         <v>16</v>
@@ -2960,7 +3000,7 @@
         <v>211</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
@@ -3044,13 +3084,13 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
@@ -3110,7 +3150,7 @@
         <v>47</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
@@ -3290,7 +3330,7 @@
         <v>62</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
@@ -3492,7 +3532,7 @@
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>83</v>
@@ -3522,7 +3562,7 @@
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>86</v>
@@ -3588,7 +3628,7 @@
         <v>226</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
@@ -3642,7 +3682,7 @@
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>94</v>
@@ -3672,7 +3712,7 @@
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>96</v>
@@ -3858,7 +3898,7 @@
         <v>117</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="33" customFormat="1" ht="34" x14ac:dyDescent="0.45">
@@ -3872,7 +3912,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>118</v>
@@ -3902,7 +3942,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>121</v>
@@ -3932,7 +3972,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>124</v>
@@ -3942,7 +3982,7 @@
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>125</v>
@@ -3998,11 +4038,11 @@
         <v>130</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>131</v>
@@ -4052,7 +4092,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>135</v>
@@ -4298,14 +4338,14 @@
         <v>153</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6" t="s">
         <v>154</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J50" s="6" t="s">
         <v>156</v>
@@ -4362,7 +4402,7 @@
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>161</v>
@@ -4506,8 +4546,7 @@
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="K35" sqref="K35"/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4540,19 +4579,19 @@
     </row>
     <row r="2" spans="1:26" s="37" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A2" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>219</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F2" s="35" t="s">
         <v>219</v>
@@ -4561,58 +4600,58 @@
         <v>188</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J2" s="35" t="s">
         <v>219</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M2" s="35" t="s">
         <v>219</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P2" s="35" t="s">
         <v>219</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="T2" s="35" t="s">
         <v>219</v>
       </c>
       <c r="U2" s="34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="V2" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="W2" s="35" t="s">
         <v>219</v>
       </c>
       <c r="X2" s="34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y2" s="35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Z2" s="36" t="s">
         <v>219</v>
@@ -4653,17 +4692,17 @@
         <v>1</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M3" s="6" t="b">
         <f>L3=K3</f>
         <v>1</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>26</v>
@@ -4849,7 +4888,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R5" s="6" t="s">
         <v>193</v>
@@ -4890,7 +4929,7 @@
         <v>189</v>
       </c>
       <c r="C6" s="10" t="b">
-        <f t="shared" ref="C6" si="8">A6=B6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -4907,20 +4946,20 @@
         <v>4</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J6" s="6" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M6" s="6" t="b">
         <f t="shared" si="3"/>
@@ -4960,10 +4999,10 @@
         <v>1</v>
       </c>
       <c r="X6" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Y6" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Z6" s="6" t="b">
         <f t="shared" si="7"/>
@@ -5198,30 +5237,30 @@
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="T9" s="5" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="W9" s="6" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X9" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y9" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z9" s="6" t="b">
         <f t="shared" si="7"/>
@@ -6484,7 +6523,7 @@
       </c>
       <c r="Q24" s="6"/>
       <c r="R24" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S24" s="5" t="s">
         <v>200</v>
@@ -6570,7 +6609,7 @@
       </c>
       <c r="Q25" s="6"/>
       <c r="R25" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>200</v>
@@ -6914,7 +6953,7 @@
       </c>
       <c r="Q29" s="6"/>
       <c r="R29" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S29" s="5" t="s">
         <v>200</v>
@@ -7000,7 +7039,7 @@
       </c>
       <c r="Q30" s="6"/>
       <c r="R30" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S30" s="5" t="s">
         <v>200</v>
@@ -7774,10 +7813,10 @@
       </c>
       <c r="Q39" s="6"/>
       <c r="R39" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T39" s="6" t="b">
         <f t="shared" si="5"/>
@@ -8795,10 +8834,10 @@
         <v>1</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P51" s="6" t="b">
         <f t="shared" si="4"/>
@@ -9355,5 +9394,6 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>